--- a/termNIT/2023/R_OUT - TERMNIT_mapping_2023-output_from_03.xlsx
+++ b/termNIT/2023/R_OUT - TERMNIT_mapping_2023-output_from_03.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,19 +420,19 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>TermRun_AGESsex</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>TermRun_AGEStemp</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>TermRun_AGESspat</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>TermRun_AGESsex</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
           <t>TermRun_AGES_year</t>
@@ -455,82 +455,114 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>n_age_2</t>
+          <t>original_n</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>n_age_3</t>
+          <t>n_age_2.x</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>n_age_4</t>
+          <t>n_age_3.x</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>n_age_5</t>
+          <t>n_age_4.x</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>n_age_6</t>
+          <t>n_age_5.x</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>n_age_6.x</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>n_age_2.y</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>n_age_3.y</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>n_age_4.y</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>n_age_5.y</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>n_age_6.y</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Maturity.Class</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>propn_age_2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>propn_age_3</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>propn_age_4</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>propn_age_5</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>propn_age_6</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>2023</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Escapement</t>
+          <t>Terminal Fisheries</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Escapement - mainstem</t>
+          <t>First Nations</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>FSC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>September,October</t>
+          <t>August,September</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -540,35 +572,32 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Lake,River,Swim-ins</t>
-        </is>
-      </c>
-      <c r="J2">
-        <v>2747</v>
+          <t>22</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected - Total</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other - Male</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -591,52 +620,61 @@
           <t>2022</t>
         </is>
       </c>
-      <c r="U2">
-        <v>58</v>
-      </c>
-      <c r="V2">
-        <v>268</v>
-      </c>
-      <c r="W2">
-        <v>7</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="AA2">
-        <v>0.1741741741741742</v>
-      </c>
-      <c r="AB2">
-        <v>0.8048048048048048</v>
-      </c>
-      <c r="AC2">
-        <v>0.02102102102102102</v>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>2023</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Escapement</t>
+          <t>Terminal Fisheries</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Escapement - mainstem</t>
+          <t>First Nations</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>FSC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>September,October</t>
+          <t>August,September</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -646,35 +684,32 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Lake,River,Swim-ins</t>
-        </is>
-      </c>
-      <c r="J3">
-        <v>2952</v>
+          <t>22</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected - Total</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other - Female</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -697,96 +732,101 @@
           <t>2022</t>
         </is>
       </c>
-      <c r="U3">
-        <v>5</v>
-      </c>
-      <c r="V3">
-        <v>197</v>
-      </c>
-      <c r="W3">
-        <v>18</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="AA3">
-        <v>0.02262443438914027</v>
-      </c>
-      <c r="AB3">
-        <v>0.8914027149321267</v>
-      </c>
-      <c r="AC3">
-        <v>0.08144796380090498</v>
-      </c>
-      <c r="AD3">
-        <v>0.004524886877828055</v>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>2023</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Escapement</t>
+          <t>Terminal Fisheries</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Escapement - mainstem</t>
+          <t>First Nations</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>FSC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>September,October</t>
+          <t>August,September</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Jack</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Lake,River,Swim-ins</t>
-        </is>
-      </c>
-      <c r="J4">
-        <v>43</v>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected - Total</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other - Jack</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -809,90 +849,101 @@
           <t>2022</t>
         </is>
       </c>
-      <c r="T4">
-        <v>43</v>
-      </c>
-      <c r="U4">
-        <v>10</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Jack</t>
-        </is>
-      </c>
-      <c r="Z4">
-        <v>0.7818181818181819</v>
-      </c>
-      <c r="AA4">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="AB4">
-        <v>0.03636363636363636</v>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>2023</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Escapement</t>
+          <t>Terminal Fisheries</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Escapement - mainstem</t>
+          <t>First Nations</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>EO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>September,October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Lake,River,Swim-ins</t>
-        </is>
-      </c>
-      <c r="J5">
-        <v>0</v>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4768</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected - Total</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other - Total</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -913,64 +964,103 @@
       <c r="S5" t="inlineStr">
         <is>
           <t>2022</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>2023</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Escapement</t>
+          <t>Terminal Fisheries</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Escapement - sex/age correction</t>
+          <t>First Nations</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Actual sex ratio (from hatchery staff)</t>
+          <t>EO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>September,October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="J6">
-        <v>0.5520696388379619</v>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3233</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected - Total</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -980,75 +1070,114 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Broodstock, morts, other</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Broodstock, morts, other</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>2023</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Escapement</t>
+          <t>Terminal Fisheries</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Escapement - sex/age correction</t>
+          <t>First Nations</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Actual sex ratio (from hatchery staff)</t>
+          <t>EO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>September,October</t>
+          <t>September</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="J7">
-        <v>0.43613707165109</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>8001</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected - Total</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Broodstock, morts, other</t>
+          <t>Broodstock corrected</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1058,93 +1187,3141 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Broodstock, morts, other</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Broodstock, morts, other</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>2023</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Terminal Fisheries</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Area 21 Terminal</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>21A,121C</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>June, July, August, September</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>121C, 21A</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0.318181818181818</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0.681818181818182</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terminal Fisheries</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Area 21 Terminal</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>21A,121C</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>June, July, August, September</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>121C, 21A</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>June, July</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>21A,121C</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0.318181818181818</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0.681818181818182</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terminal Fisheries</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Area 21 Terminal</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>21A,121C</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>June, July, August, September</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>121C, 21A</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>June,July</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>21A,121C</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>0.318181818181818</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0.681818181818182</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terminal Fisheries</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Area 21 Terminal</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>21A,121C</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>June, July, August, September</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>no samples, 121C, 21A</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0.318181818181818</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0.681818181818182</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Terminal Fisheries</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nitinat Lake</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Terminal Fisheries</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Nitinat Lake</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Terminal Fisheries</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Nitinat River</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Terminal Fisheries</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Nitinat River</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Terminal Fisheries</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Commercial</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Gillnet</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Terminal Fisheries</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Commercial</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Seine</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Escapement</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Escapement - mainstem</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Lake,River,Swim-ins</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2747</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other - Male</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>0.174174174174174</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>0.804804804804805</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>0.021021021021021</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Escapement - mainstem</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lake,River,Swim-ins</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2952</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other - Female</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>0.0226244343891403</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>0.891402714932127</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>0.081447963800905</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>0.00452488687782805</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Escapement - mainstem</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Lake,River,Swim-ins</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other - Jack</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>0.781818181818182</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>0.181818181818182</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>0.0363636363636364</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Escapement - mainstem</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Lake,River,Swim-ins</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other - Total</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Escapement - mainstem</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ESSR</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Lake,River,Swim-ins</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Males (incl Jacks)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>Males (incl Jacks)</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>0.108813725915888</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>0.432054499960144</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>0.0112014129619297</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Escapement - mainstem</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ESSR</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Lake,River,Swim-ins</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Female</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>0.00986735456224186</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>0.388773769752329</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>0.0355224764240707</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Escapement - mainstem</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ESSR</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Lake,River,Swim-ins</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Jack</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>0.781818181818182</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Escapement - mainstem</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ESSR</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Lake,River,Swim-ins</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Escapement - mainstem</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Natural spawners</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Adults</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Nitinat River + tribs</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>14247</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Escapement - mainstem</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Natural spawners</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Total (incl Jacks)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Nitinat River + tribs</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>14250</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Escapement - other</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Natural spawners</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Little Nitinat River</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Escapement - other</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Natural spawners</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Escapement - other</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Natural spawners</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Doobah</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Escapement - other</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Natural spawners</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Caycuse</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Escapement - other</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Natural spawners</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Hobiton</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Broodstock corrected - Total</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Broodstock corrected</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>0.11868108047813</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>0.820828269712473</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>0.0467238893860003</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>0.00197347091244837</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Escapement - sex/age correction</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Actual sex ratio (from hatchery staff)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>September,October</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0.552069638837962</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Escapement - sex/age correction</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Actual sex ratio (from hatchery staff)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0.43613707165109</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Escapement</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Escapement - sex/age correction</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Actual sex ratio (from hatchery staff)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>September,October</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Jack</t>
         </is>
       </c>
-      <c r="J8">
-        <v>0.01179328951094816</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.0117932895109482</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Broodstock, morts, other</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Broodstock, morts, other</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Broodstock, morts, other</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Broodstock, morts, other</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
